--- a/biology/Biologie cellulaire et moléculaire/Gustave_Malécot/Gustave_Malécot.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Gustave_Malécot/Gustave_Malécot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustave_Mal%C3%A9cot</t>
+          <t>Gustave_Malécot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Malécot (né le 28 décembre 1911 à La Grand-Croix et mort le 7 novembre 1998 à Fayence) est un mathématicien français qui a travaillé sur l'hérédité et qui a eu une grande influence sur la génétique des populations. Ses travaux ont également porté, mais dans une moindre mesure, sur l'économie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gustave_Mal%C3%A9cot</t>
+          <t>Gustave_Malécot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un ingénieur des mines, il passe son enfance à L'Horme, près de Saint-Étienne. Il était cousin germain d'Aimé Malécot[réf. nécessaire].
 De 1932 à 1935 il est à l'École normale supérieure, à l'issue de laquelle il est diplômé en mathématique. Il obtient son agrégation de mathématique en juillet 1935 et son doctorat en 1939 sous la supervision de Georges Darmois. Son travail se concentre sur l'article de Ronald Fisher The Correlation Between Relatives on the Supposition of Mendelian Inheritance écrit en 1918.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gustave_Mal%C3%A9cot</t>
+          <t>Gustave_Malécot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,49 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il a fortement contribué à l'évolution de la génétique de population s'inscrivant à côté des grands noms de cette discipline. Précurseur dans son approche, il n'a été reconnu que dans la deuxième moitié du XXeme siécle à cause  du contexte politique de l'époque (occupation de la France par l'Allemagne du Troisième Reich et conséquence de la Seconde Guerre mondiale), mais également du peu d'usage de la langue française en science[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a fortement contribué à l'évolution de la génétique de population s'inscrivant à côté des grands noms de cette discipline. Précurseur dans son approche, il n'a été reconnu que dans la deuxième moitié du XXeme siécle à cause  du contexte politique de l'époque (occupation de la France par l'Allemagne du Troisième Reich et conséquence de la Seconde Guerre mondiale), mais également du peu d'usage de la langue française en science. 
 En génétique, son originalité porte sur l'utilisation des probabilités et non des statistiques comme cela était courant à l'époque à la suite des travaux de Ronald Fisher, J. B. S. Haldane et Sewall Wright.
-La formule de Malécot
-Cette formule permet de calculer le coefficient de consanguinité d'un individu z (Fz) ou le coefficient de parenté de ses parents x et y (Rxy). Pour cela, il faut d'abord déterminer les ancêtres communs au père et à la mère. Il faut ensuite compter le nombre de générations séparant chaque ancêtre commun du père et de la mère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gustave_Malécot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gustave_Mal%C3%A9cot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La formule de Malécot</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette formule permet de calculer le coefficient de consanguinité d'un individu z (Fz) ou le coefficient de parenté de ses parents x et y (Rxy). Pour cela, il faut d'abord déterminer les ancêtres communs au père et à la mère. Il faut ensuite compter le nombre de générations séparant chaque ancêtre commun du père et de la mère.
 On applique alors la formule :
    Fz = Rxy = S(1/2)n1+n2+1(1+FA),
 où :
@@ -559,31 +610,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gustave_Mal%C3%A9cot</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gustave_Malécot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gustave_Mal%C3%A9cot</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Officier de la Légion d'honneur
 Officier des Palmes académiques</t>
